--- a/migration/العريس اكسل.xlsx
+++ b/migration/العريس اكسل.xlsx
@@ -1,35 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elksass\Desktop\p\zaghrota_backEnd\migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ENGMOHAMED\Flutter\zaghrota\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC5F9F-DB86-4F47-B9E5-4FCD4BFFF2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="13933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1445,7 +1433,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1767,25 +1755,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B465"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="162.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="162.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1781,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1789,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1797,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +1805,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1813,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1833,7 +1821,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1829,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1837,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1845,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1865,7 +1853,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +1861,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1869,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +1877,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1897,7 +1885,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1905,7 +1893,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1913,7 +1901,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1909,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1917,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1937,7 +1925,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1933,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1941,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +1949,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1969,7 +1957,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +1965,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +1973,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1993,7 +1981,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +1989,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2009,7 +1997,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -2017,7 +2005,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2025,7 +2013,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2033,7 +2021,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2041,7 +2029,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2049,7 +2037,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,7 +2045,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +2053,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2073,7 +2061,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2081,7 +2069,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2089,7 +2077,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2097,7 +2085,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2105,7 +2093,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2113,7 +2101,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2121,7 +2109,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2129,7 +2117,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,7 +2125,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2145,7 +2133,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2153,7 +2141,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2161,7 +2149,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -2169,7 +2157,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2165,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
@@ -2185,7 +2173,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -2193,7 +2181,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -2201,7 +2189,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -2209,7 +2197,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -2217,7 +2205,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -2225,7 +2213,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -2233,7 +2221,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2241,7 +2229,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2249,7 +2237,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2257,7 +2245,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -2265,7 +2253,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -2273,7 +2261,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
@@ -2281,7 +2269,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
@@ -2289,7 +2277,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
@@ -2297,7 +2285,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
@@ -2305,7 +2293,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
@@ -2313,7 +2301,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
@@ -2321,7 +2309,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
@@ -2329,7 +2317,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
@@ -2337,7 +2325,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -2345,7 +2333,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
@@ -2353,7 +2341,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -2361,7 +2349,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
@@ -2369,7 +2357,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
@@ -2377,7 +2365,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -2385,7 +2373,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -2393,7 +2381,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -2401,7 +2389,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
@@ -2409,7 +2397,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
@@ -2417,7 +2405,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
@@ -2425,7 +2413,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
@@ -2433,7 +2421,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
@@ -2441,7 +2429,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -2449,7 +2437,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>81</v>
       </c>
@@ -2457,7 +2445,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
@@ -2465,7 +2453,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>83</v>
       </c>
@@ -2473,7 +2461,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>84</v>
       </c>
@@ -2481,7 +2469,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -2489,7 +2477,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
@@ -2497,7 +2485,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
@@ -2505,7 +2493,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
@@ -2513,7 +2501,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
@@ -2521,7 +2509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
@@ -2529,7 +2517,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
@@ -2537,7 +2525,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
@@ -2545,7 +2533,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
@@ -2553,7 +2541,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>94</v>
       </c>
@@ -2561,7 +2549,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -2569,7 +2557,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
@@ -2577,7 +2565,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>97</v>
       </c>
@@ -2585,7 +2573,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
@@ -2593,7 +2581,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>99</v>
       </c>
@@ -2601,7 +2589,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>100</v>
       </c>
@@ -2609,7 +2597,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
@@ -2617,7 +2605,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>102</v>
       </c>
@@ -2625,7 +2613,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
@@ -2633,7 +2621,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
@@ -2641,7 +2629,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
@@ -2649,7 +2637,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
@@ -2657,7 +2645,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>107</v>
       </c>
@@ -2665,7 +2653,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
@@ -2673,7 +2661,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
@@ -2681,7 +2669,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
@@ -2689,7 +2677,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
@@ -2697,7 +2685,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
@@ -2705,7 +2693,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
@@ -2713,7 +2701,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
@@ -2721,7 +2709,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
@@ -2729,7 +2717,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
@@ -2737,7 +2725,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
@@ -2745,7 +2733,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>118</v>
       </c>
@@ -2753,7 +2741,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
@@ -2761,7 +2749,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
@@ -2769,7 +2757,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
@@ -2777,7 +2765,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
@@ -2785,7 +2773,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>123</v>
       </c>
@@ -2793,7 +2781,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
@@ -2801,7 +2789,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>125</v>
       </c>
@@ -2809,7 +2797,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
@@ -2817,7 +2805,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
@@ -2825,7 +2813,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
@@ -2833,7 +2821,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
@@ -2841,7 +2829,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>130</v>
       </c>
@@ -2849,7 +2837,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
@@ -2857,7 +2845,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
@@ -2865,7 +2853,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
@@ -2873,7 +2861,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
@@ -2881,7 +2869,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>135</v>
       </c>
@@ -2889,7 +2877,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>136</v>
       </c>
@@ -2897,7 +2885,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>137</v>
       </c>
@@ -2905,7 +2893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>138</v>
       </c>
@@ -2913,7 +2901,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>139</v>
       </c>
@@ -2921,7 +2909,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>140</v>
       </c>
@@ -2929,7 +2917,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
@@ -2937,7 +2925,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>142</v>
       </c>
@@ -2945,7 +2933,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>143</v>
       </c>
@@ -2953,7 +2941,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>144</v>
       </c>
@@ -2961,7 +2949,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>145</v>
       </c>
@@ -2969,7 +2957,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>138</v>
       </c>
@@ -2977,7 +2965,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>146</v>
       </c>
@@ -2985,7 +2973,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>147</v>
       </c>
@@ -2993,7 +2981,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>148</v>
       </c>
@@ -3001,7 +2989,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>149</v>
       </c>
@@ -3009,7 +2997,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>150</v>
       </c>
@@ -3017,7 +3005,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>151</v>
       </c>
@@ -3025,7 +3013,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>152</v>
       </c>
@@ -3033,7 +3021,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>153</v>
       </c>
@@ -3041,7 +3029,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>154</v>
       </c>
@@ -3049,7 +3037,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>155</v>
       </c>
@@ -3057,7 +3045,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>156</v>
       </c>
@@ -3065,7 +3053,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>157</v>
       </c>
@@ -3073,7 +3061,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>158</v>
       </c>
@@ -3081,7 +3069,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>159</v>
       </c>
@@ -3089,7 +3077,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>160</v>
       </c>
@@ -3097,7 +3085,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>161</v>
       </c>
@@ -3105,7 +3093,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
@@ -3113,7 +3101,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -3121,7 +3109,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>164</v>
       </c>
@@ -3129,7 +3117,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>165</v>
       </c>
@@ -3137,7 +3125,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>166</v>
       </c>
@@ -3145,7 +3133,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>167</v>
       </c>
@@ -3153,7 +3141,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>168</v>
       </c>
@@ -3161,7 +3149,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>169</v>
       </c>
@@ -3169,7 +3157,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>170</v>
       </c>
@@ -3177,7 +3165,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>171</v>
       </c>
@@ -3185,7 +3173,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>172</v>
       </c>
@@ -3193,7 +3181,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>173</v>
       </c>
@@ -3201,7 +3189,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>174</v>
       </c>
@@ -3209,7 +3197,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>150</v>
       </c>
@@ -3217,7 +3205,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>153</v>
       </c>
@@ -3225,7 +3213,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>175</v>
       </c>
@@ -3233,7 +3221,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>176</v>
       </c>
@@ -3241,7 +3229,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>145</v>
       </c>
@@ -3249,7 +3237,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>177</v>
       </c>
@@ -3257,7 +3245,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>178</v>
       </c>
@@ -3265,7 +3253,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>179</v>
       </c>
@@ -3273,7 +3261,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>180</v>
       </c>
@@ -3281,7 +3269,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>181</v>
       </c>
@@ -3289,7 +3277,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>182</v>
       </c>
@@ -3297,7 +3285,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>183</v>
       </c>
@@ -3305,7 +3293,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>184</v>
       </c>
@@ -3313,7 +3301,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>185</v>
       </c>
@@ -3321,7 +3309,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>186</v>
       </c>
@@ -3329,7 +3317,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>187</v>
       </c>
@@ -3337,7 +3325,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>188</v>
       </c>
@@ -3345,7 +3333,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>189</v>
       </c>
@@ -3353,7 +3341,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>190</v>
       </c>
@@ -3361,7 +3349,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>191</v>
       </c>
@@ -3369,7 +3357,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>192</v>
       </c>
@@ -3377,7 +3365,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>193</v>
       </c>
@@ -3385,7 +3373,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>194</v>
       </c>
@@ -3393,7 +3381,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>195</v>
       </c>
@@ -3401,7 +3389,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>196</v>
       </c>
@@ -3409,7 +3397,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>197</v>
       </c>
@@ -3417,7 +3405,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>198</v>
       </c>
@@ -3425,7 +3413,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>199</v>
       </c>
@@ -3433,7 +3421,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>200</v>
       </c>
@@ -3441,7 +3429,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>201</v>
       </c>
@@ -3449,7 +3437,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>202</v>
       </c>
@@ -3457,7 +3445,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>203</v>
       </c>
@@ -3465,7 +3453,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>204</v>
       </c>
@@ -3473,7 +3461,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>205</v>
       </c>
@@ -3481,7 +3469,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>206</v>
       </c>
@@ -3489,7 +3477,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>207</v>
       </c>
@@ -3497,7 +3485,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>208</v>
       </c>
@@ -3505,7 +3493,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>209</v>
       </c>
@@ -3513,7 +3501,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>210</v>
       </c>
@@ -3521,7 +3509,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>211</v>
       </c>
@@ -3529,7 +3517,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>212</v>
       </c>
@@ -3537,7 +3525,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>213</v>
       </c>
@@ -3545,7 +3533,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>214</v>
       </c>
@@ -3553,7 +3541,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>215</v>
       </c>
@@ -3561,7 +3549,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>216</v>
       </c>
@@ -3569,7 +3557,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>217</v>
       </c>
@@ -3577,7 +3565,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>218</v>
       </c>
@@ -3585,7 +3573,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>219</v>
       </c>
@@ -3593,7 +3581,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>220</v>
       </c>
@@ -3601,7 +3589,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>221</v>
       </c>
@@ -3609,7 +3597,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>222</v>
       </c>
@@ -3617,7 +3605,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>223</v>
       </c>
@@ -3625,7 +3613,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>224</v>
       </c>
@@ -3633,7 +3621,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>225</v>
       </c>
@@ -3641,7 +3629,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>226</v>
       </c>
@@ -3649,15 +3637,19 @@
         <v>456</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B235" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235" t="e">
+        <f>+M36BA1:C261</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>228</v>
       </c>
@@ -3665,7 +3657,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>229</v>
       </c>
@@ -3673,7 +3665,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>230</v>
       </c>
@@ -3681,7 +3673,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>231</v>
       </c>
@@ -3689,7 +3681,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>232</v>
       </c>
@@ -3697,7 +3689,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>233</v>
       </c>
@@ -3705,7 +3697,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>234</v>
       </c>
@@ -3713,7 +3705,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>235</v>
       </c>
@@ -3721,7 +3713,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>236</v>
       </c>
@@ -3729,7 +3721,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>237</v>
       </c>
@@ -3737,7 +3729,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>238</v>
       </c>
@@ -3745,7 +3737,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>239</v>
       </c>
@@ -3753,7 +3745,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>240</v>
       </c>
@@ -3761,7 +3753,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>241</v>
       </c>
@@ -3769,7 +3761,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>242</v>
       </c>
@@ -3777,7 +3769,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>243</v>
       </c>
@@ -3785,7 +3777,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>244</v>
       </c>
@@ -3793,7 +3785,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>245</v>
       </c>
@@ -3801,7 +3793,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>246</v>
       </c>
@@ -3809,7 +3801,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>247</v>
       </c>
@@ -3817,7 +3809,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>248</v>
       </c>
@@ -3825,7 +3817,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>249</v>
       </c>
@@ -3833,7 +3825,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>250</v>
       </c>
@@ -3841,7 +3833,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>251</v>
       </c>
@@ -3849,7 +3841,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>252</v>
       </c>
@@ -3857,7 +3849,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>253</v>
       </c>
@@ -3865,7 +3857,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>254</v>
       </c>
@@ -3873,7 +3865,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>255</v>
       </c>
@@ -3881,7 +3873,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>256</v>
       </c>
@@ -3889,7 +3881,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>257</v>
       </c>
@@ -3897,7 +3889,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>258</v>
       </c>
@@ -3905,7 +3897,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>259</v>
       </c>
@@ -3913,7 +3905,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>260</v>
       </c>
@@ -3921,7 +3913,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>261</v>
       </c>
@@ -3929,7 +3921,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>262</v>
       </c>
@@ -3937,7 +3929,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>263</v>
       </c>
@@ -3945,7 +3937,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>264</v>
       </c>
@@ -3953,7 +3945,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>265</v>
       </c>
@@ -3961,7 +3953,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>266</v>
       </c>
@@ -3969,7 +3961,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>267</v>
       </c>
@@ -3977,7 +3969,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>268</v>
       </c>
@@ -3985,7 +3977,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>269</v>
       </c>
@@ -3993,7 +3985,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>270</v>
       </c>
@@ -4001,7 +3993,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>271</v>
       </c>
@@ -4009,7 +4001,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>272</v>
       </c>
@@ -4017,7 +4009,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>273</v>
       </c>
@@ -4025,7 +4017,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>274</v>
       </c>
@@ -4033,7 +4025,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>275</v>
       </c>
@@ -4041,7 +4033,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>234</v>
       </c>
@@ -4049,7 +4041,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>276</v>
       </c>
@@ -4057,7 +4049,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>278</v>
       </c>
@@ -4065,7 +4057,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>279</v>
       </c>
@@ -4073,7 +4065,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>280</v>
       </c>
@@ -4081,7 +4073,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>281</v>
       </c>
@@ -4089,7 +4081,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>282</v>
       </c>
@@ -4097,7 +4089,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>283</v>
       </c>
@@ -4105,7 +4097,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>284</v>
       </c>
@@ -4113,7 +4105,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>285</v>
       </c>
@@ -4121,7 +4113,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>286</v>
       </c>
@@ -4129,7 +4121,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>287</v>
       </c>
@@ -4137,7 +4129,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>288</v>
       </c>
@@ -4145,7 +4137,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>289</v>
       </c>
@@ -4153,7 +4145,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>290</v>
       </c>
@@ -4161,7 +4153,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>291</v>
       </c>
@@ -4169,7 +4161,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>292</v>
       </c>
@@ -4177,7 +4169,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>293</v>
       </c>
@@ -4185,7 +4177,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>294</v>
       </c>
@@ -4193,7 +4185,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>295</v>
       </c>
@@ -4201,7 +4193,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>296</v>
       </c>
@@ -4209,7 +4201,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>297</v>
       </c>
@@ -4217,7 +4209,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>298</v>
       </c>
@@ -4225,7 +4217,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>299</v>
       </c>
@@ -4233,7 +4225,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>300</v>
       </c>
@@ -4241,7 +4233,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>301</v>
       </c>
@@ -4249,7 +4241,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>302</v>
       </c>
@@ -4257,7 +4249,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>303</v>
       </c>
@@ -4265,7 +4257,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>304</v>
       </c>
@@ -4273,7 +4265,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>305</v>
       </c>
@@ -4281,7 +4273,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>306</v>
       </c>
@@ -4289,7 +4281,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>307</v>
       </c>
@@ -4297,7 +4289,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>308</v>
       </c>
@@ -4305,7 +4297,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>309</v>
       </c>
@@ -4313,7 +4305,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>310</v>
       </c>
@@ -4321,7 +4313,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>311</v>
       </c>
@@ -4329,7 +4321,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>312</v>
       </c>
@@ -4337,7 +4329,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>313</v>
       </c>
@@ -4345,7 +4337,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>314</v>
       </c>
@@ -4353,7 +4345,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>315</v>
       </c>
@@ -4361,7 +4353,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>313</v>
       </c>
@@ -4369,7 +4361,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>316</v>
       </c>
@@ -4377,7 +4369,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>317</v>
       </c>
@@ -4385,7 +4377,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>318</v>
       </c>
@@ -4393,7 +4385,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>319</v>
       </c>
@@ -4401,7 +4393,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>320</v>
       </c>
@@ -4409,7 +4401,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>321</v>
       </c>
@@ -4417,7 +4409,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>322</v>
       </c>
@@ -4425,7 +4417,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>323</v>
       </c>
@@ -4433,7 +4425,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>324</v>
       </c>
@@ -4441,7 +4433,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>325</v>
       </c>
@@ -4449,7 +4441,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>326</v>
       </c>
@@ -4457,7 +4449,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>327</v>
       </c>
@@ -4465,7 +4457,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>328</v>
       </c>
@@ -4473,7 +4465,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>329</v>
       </c>
@@ -4481,7 +4473,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>330</v>
       </c>
@@ -4489,7 +4481,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>331</v>
       </c>
@@ -4497,7 +4489,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>332</v>
       </c>
@@ -4505,7 +4497,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>333</v>
       </c>
@@ -4513,7 +4505,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>334</v>
       </c>
@@ -4521,7 +4513,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>335</v>
       </c>
@@ -4529,7 +4521,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>336</v>
       </c>
@@ -4537,7 +4529,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>337</v>
       </c>
@@ -4545,7 +4537,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>338</v>
       </c>
@@ -4553,7 +4545,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>339</v>
       </c>
@@ -4561,7 +4553,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>340</v>
       </c>
@@ -4569,7 +4561,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>341</v>
       </c>
@@ -4577,7 +4569,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>342</v>
       </c>
@@ -4585,7 +4577,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>343</v>
       </c>
@@ -4593,7 +4585,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>344</v>
       </c>
@@ -4601,7 +4593,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>345</v>
       </c>
@@ -4609,7 +4601,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>346</v>
       </c>
@@ -4617,7 +4609,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>347</v>
       </c>
@@ -4625,7 +4617,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>348</v>
       </c>
@@ -4633,7 +4625,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>349</v>
       </c>
@@ -4641,7 +4633,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>350</v>
       </c>
@@ -4649,7 +4641,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>351</v>
       </c>
@@ -4657,7 +4649,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>352</v>
       </c>
@@ -4665,7 +4657,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>353</v>
       </c>
@@ -4673,7 +4665,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>354</v>
       </c>
@@ -4681,7 +4673,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>355</v>
       </c>
@@ -4689,7 +4681,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>356</v>
       </c>
@@ -4697,7 +4689,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>357</v>
       </c>
@@ -4705,7 +4697,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>358</v>
       </c>
@@ -4713,7 +4705,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>359</v>
       </c>
@@ -4721,7 +4713,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>360</v>
       </c>
@@ -4729,7 +4721,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>361</v>
       </c>
@@ -4737,7 +4729,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>362</v>
       </c>
@@ -4745,7 +4737,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>363</v>
       </c>
@@ -4753,7 +4745,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>363</v>
       </c>
@@ -4761,7 +4753,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>364</v>
       </c>
@@ -4769,7 +4761,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>365</v>
       </c>
@@ -4777,7 +4769,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>366</v>
       </c>
@@ -4785,7 +4777,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>367</v>
       </c>
@@ -4793,7 +4785,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>368</v>
       </c>
@@ -4801,7 +4793,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>369</v>
       </c>
@@ -4809,7 +4801,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>370</v>
       </c>
@@ -4817,7 +4809,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>371</v>
       </c>
@@ -4825,7 +4817,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>372</v>
       </c>
@@ -4833,7 +4825,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>373</v>
       </c>
@@ -4841,7 +4833,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>374</v>
       </c>
@@ -4849,7 +4841,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>375</v>
       </c>
@@ -4857,7 +4849,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>376</v>
       </c>
@@ -4865,7 +4857,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>377</v>
       </c>
@@ -4873,7 +4865,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>378</v>
       </c>
@@ -4881,7 +4873,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>379</v>
       </c>
@@ -4889,7 +4881,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>380</v>
       </c>
@@ -4897,7 +4889,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>381</v>
       </c>
@@ -4905,7 +4897,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>382</v>
       </c>
@@ -4913,7 +4905,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>383</v>
       </c>
@@ -4921,7 +4913,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>384</v>
       </c>
@@ -4929,7 +4921,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>385</v>
       </c>
@@ -4937,7 +4929,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>386</v>
       </c>
@@ -4945,7 +4937,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>387</v>
       </c>
@@ -4953,7 +4945,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>388</v>
       </c>
@@ -4961,7 +4953,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>389</v>
       </c>
@@ -4969,7 +4961,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>390</v>
       </c>
@@ -4977,7 +4969,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>391</v>
       </c>
@@ -4985,7 +4977,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>392</v>
       </c>
@@ -4993,7 +4985,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>393</v>
       </c>
@@ -5001,7 +4993,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>394</v>
       </c>
@@ -5009,7 +5001,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>395</v>
       </c>
@@ -5017,7 +5009,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>396</v>
       </c>
@@ -5025,7 +5017,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>397</v>
       </c>
@@ -5033,7 +5025,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>398</v>
       </c>
@@ -5041,7 +5033,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>399</v>
       </c>
@@ -5049,7 +5041,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>400</v>
       </c>
@@ -5057,7 +5049,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>401</v>
       </c>
@@ -5065,7 +5057,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>402</v>
       </c>
@@ -5073,7 +5065,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>403</v>
       </c>
@@ -5081,7 +5073,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>404</v>
       </c>
@@ -5089,7 +5081,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>405</v>
       </c>
@@ -5097,7 +5089,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>406</v>
       </c>
@@ -5105,7 +5097,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>407</v>
       </c>
@@ -5113,7 +5105,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>408</v>
       </c>
@@ -5121,7 +5113,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>409</v>
       </c>
@@ -5129,7 +5121,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>410</v>
       </c>
@@ -5137,7 +5129,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>411</v>
       </c>
@@ -5145,7 +5137,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>412</v>
       </c>
@@ -5153,7 +5145,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>413</v>
       </c>
@@ -5161,7 +5153,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>414</v>
       </c>
@@ -5169,7 +5161,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>415</v>
       </c>
@@ -5177,7 +5169,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>416</v>
       </c>
@@ -5185,7 +5177,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>417</v>
       </c>
@@ -5193,7 +5185,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>418</v>
       </c>
@@ -5201,7 +5193,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>419</v>
       </c>
@@ -5209,7 +5201,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>420</v>
       </c>
@@ -5217,7 +5209,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>421</v>
       </c>
@@ -5225,7 +5217,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>422</v>
       </c>
@@ -5233,7 +5225,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>423</v>
       </c>
@@ -5241,7 +5233,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>424</v>
       </c>
@@ -5249,7 +5241,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>425</v>
       </c>
@@ -5257,7 +5249,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>426</v>
       </c>
@@ -5265,7 +5257,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>427</v>
       </c>
@@ -5273,7 +5265,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>428</v>
       </c>
@@ -5281,7 +5273,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>429</v>
       </c>
@@ -5289,7 +5281,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>430</v>
       </c>
@@ -5297,7 +5289,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>431</v>
       </c>
@@ -5305,7 +5297,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>432</v>
       </c>
@@ -5313,7 +5305,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>433</v>
       </c>
@@ -5321,7 +5313,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>434</v>
       </c>
@@ -5329,7 +5321,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>435</v>
       </c>
@@ -5337,7 +5329,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>436</v>
       </c>
@@ -5345,7 +5337,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>437</v>
       </c>
@@ -5353,7 +5345,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>438</v>
       </c>
@@ -5361,7 +5353,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>439</v>
       </c>
@@ -5369,7 +5361,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>440</v>
       </c>
@@ -5377,7 +5369,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>441</v>
       </c>
@@ -5385,7 +5377,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>442</v>
       </c>
@@ -5393,7 +5385,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>443</v>
       </c>
@@ -5401,7 +5393,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>444</v>
       </c>
@@ -5409,7 +5401,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>445</v>
       </c>
@@ -5417,7 +5409,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>446</v>
       </c>
@@ -5425,7 +5417,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>447</v>
       </c>
@@ -5433,7 +5425,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>448</v>
       </c>
@@ -5441,7 +5433,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>449</v>
       </c>
@@ -5449,7 +5441,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>450</v>
       </c>
@@ -5457,7 +5449,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>451</v>
       </c>
@@ -5465,7 +5457,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>452</v>
       </c>
@@ -5473,7 +5465,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>453</v>
       </c>
@@ -5481,7 +5473,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>454</v>
       </c>
@@ -5489,7 +5481,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>455</v>
       </c>
@@ -5499,471 +5491,471 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A38" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A39" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A41" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A42" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A44" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A45" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A46" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A47" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A48" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A49" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A50" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A51" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A52" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A53" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A54" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A55" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A56" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A57" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A58" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A84" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A65" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A66" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A67" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A68" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A69" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A70" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A71" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A72" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A73" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A74" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A75" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A76" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A77" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A78" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A79" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="A80" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A81" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="A82" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A83" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A85" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A86" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="A87" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A88" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A89" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A90" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A91" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A92" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A106" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A135" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A93" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A94" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A95" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A96" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A97" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A98" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="A99" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A100" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A101" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A102" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="A103" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A104" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A105" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A107" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="A108" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A109" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="A110" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A111" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A112" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A113" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="A114" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="A115" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="A116" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="A117" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="A118" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="A119" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="A120" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="A121" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="A122" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="A123" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="A124" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="A125" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="A126" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="A127" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="A128" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="A129" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="A130" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="A132" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="A133" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="A131" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="A134" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="A136" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="A137" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="A138" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="A139" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="A140" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="A141" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="A142" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="A143" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="A144" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="A145" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="A146" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="A147" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="A148" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="A172" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="A181" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="A180" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="A189" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="A149" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="A150" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="A151" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="A152" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="A153" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="A154" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="A155" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="A156" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="A157" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="A158" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="A159" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="A160" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="A161" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="A162" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="A163" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="A164" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="A165" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="A166" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="A167" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="A168" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="A169" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="A170" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="A171" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="A173" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="A174" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="A175" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="A176" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="A177" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="A178" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="A179" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="A182" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="A183" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="A184" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="A185" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="A186" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="A187" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="A188" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="A190" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="A214" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="A197" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="A198" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="A199" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="A200" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="A201" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="A202" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="A203" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="A204" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="A205" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="A206" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="A207" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="A208" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="A209" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="A210" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="A211" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="A212" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="A213" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="A191" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="A192" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="A193" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="A194" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="A195" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="A196" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="A216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="A221" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="A215" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="A217" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="A218" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="A219" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="A220" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="A222" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="A223" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="A224" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="A225" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="A226" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="A227" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="A228" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="A229" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="A230" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="A231" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="A232" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="A233" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="A234" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="A269" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="A235" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="A236" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="A237" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="A238" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="A239" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="A240" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="A241" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="A242" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="A243" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="A244" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="A245" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="A246" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="A247" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="A248" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="A249" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="A250" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="A251" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="A252" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="A253" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="A254" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="A255" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="A256" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="A257" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="A258" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="A259" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="A260" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="A261" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="A262" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="A263" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="A264" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="A265" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="A266" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="A267" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="A268" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="A270" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="A271" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="A272" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="A273" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="A274" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="A275" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="A276" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="A277" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="A278" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="A279" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="A280" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="A281" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="A282" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="A283" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="A284" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="A285" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="A286" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="A287" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="A288" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="A289" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="A290" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="A291" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="A292" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="A293" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="A294" display="https://www.aliqtisadi.ps/public/files/image/2016/untitled%20folder%201/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/unt" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="A299" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="A295" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="A296" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="A297" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="A298" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="A300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="A301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="A302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="A303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="A304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="A305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="A306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="A307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="A308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="A309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="A310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="A313" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="A346" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="A311" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="A312" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="A314" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="A315" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="A316" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="A317" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="A318" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="A319" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="A320" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="A321" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="A322" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="A323" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="A324" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="A325" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="A326" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="A327" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="A328" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="A347" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="A348" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="A329" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="A330" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="A331" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="A332" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="A333" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="A334" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="A335" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="A336" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="A339" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="A340" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="A341" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="A343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="A337" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="A338" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="A342" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="A344" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="A345" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="A349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="A350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="A353" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="A381" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="A351" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="A352" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="A354" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="A355" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="A356" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="A357" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="A358" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="A359" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="A360" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="A361" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="A362" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="A363" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="A364" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="A365" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="A366" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="A367" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="A368" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="A369" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="A370" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="A371" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="A372" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="A390" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="A389" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="A388" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="A373" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="A374" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="A375" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="A376" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="A377" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="A378" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="A379" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="A380" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="A382" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="A383" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="A384" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="A385" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="A386" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="A387" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="A402" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="A416" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="A421" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="A391" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="A392" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="A393" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="A394" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="A396" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="A395" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="A397" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="A398" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="A399" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="A400" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="A403" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="A401" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="A414" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="A415" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="A417" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="A418" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="A419" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="A420" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="A422" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="A423" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="A424" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="A425" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="A404" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="A406" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="A405" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="A407" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="A408" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="A409" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="A411" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="A410" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="A412" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="A413" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="A448" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="A444" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="A426" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="A427" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="A429" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="A428" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="A430" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="A431" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="A465" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="A464" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="A463" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="A462" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="A461" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="A460" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="A459" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="A458" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="A457" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="A456" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="A455" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="A454" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="A432" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="A433" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="A434" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="A435" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="A437" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="A436" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="A438" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="A439" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="A440" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="A441" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="A442" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="A443" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="A445" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="A446" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="A447" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="A449" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="A450" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="A451" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="A452" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="A453" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="A7" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="A9" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="A11" r:id="rId12"/>
+    <hyperlink ref="A12" r:id="rId13"/>
+    <hyperlink ref="A13" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A17" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId18"/>
+    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="A20" r:id="rId20"/>
+    <hyperlink ref="A21" r:id="rId21"/>
+    <hyperlink ref="A22" r:id="rId22"/>
+    <hyperlink ref="A23" r:id="rId23"/>
+    <hyperlink ref="A24" r:id="rId24"/>
+    <hyperlink ref="A25" r:id="rId25"/>
+    <hyperlink ref="A26" r:id="rId26"/>
+    <hyperlink ref="A27" r:id="rId27"/>
+    <hyperlink ref="A28" r:id="rId28"/>
+    <hyperlink ref="A29" r:id="rId29"/>
+    <hyperlink ref="A30" r:id="rId30"/>
+    <hyperlink ref="A31" r:id="rId31"/>
+    <hyperlink ref="A32" r:id="rId32"/>
+    <hyperlink ref="A33" r:id="rId33"/>
+    <hyperlink ref="A60" r:id="rId34"/>
+    <hyperlink ref="A34" r:id="rId35"/>
+    <hyperlink ref="A35" r:id="rId36"/>
+    <hyperlink ref="A36" r:id="rId37"/>
+    <hyperlink ref="A37" r:id="rId38"/>
+    <hyperlink ref="A38" r:id="rId39"/>
+    <hyperlink ref="A39" r:id="rId40"/>
+    <hyperlink ref="A40" r:id="rId41"/>
+    <hyperlink ref="A41" r:id="rId42"/>
+    <hyperlink ref="A42" r:id="rId43"/>
+    <hyperlink ref="A43" r:id="rId44"/>
+    <hyperlink ref="A44" r:id="rId45"/>
+    <hyperlink ref="A45" r:id="rId46"/>
+    <hyperlink ref="A46" r:id="rId47"/>
+    <hyperlink ref="A47" r:id="rId48"/>
+    <hyperlink ref="A48" r:id="rId49"/>
+    <hyperlink ref="A49" r:id="rId50"/>
+    <hyperlink ref="A50" r:id="rId51"/>
+    <hyperlink ref="A51" r:id="rId52"/>
+    <hyperlink ref="A52" r:id="rId53"/>
+    <hyperlink ref="A53" r:id="rId54"/>
+    <hyperlink ref="A54" r:id="rId55"/>
+    <hyperlink ref="A55" r:id="rId56"/>
+    <hyperlink ref="A56" r:id="rId57"/>
+    <hyperlink ref="A57" r:id="rId58"/>
+    <hyperlink ref="A58" r:id="rId59"/>
+    <hyperlink ref="A59" r:id="rId60"/>
+    <hyperlink ref="A61" r:id="rId61"/>
+    <hyperlink ref="A62" r:id="rId62"/>
+    <hyperlink ref="A63" r:id="rId63"/>
+    <hyperlink ref="A64" r:id="rId64"/>
+    <hyperlink ref="A84" r:id="rId65"/>
+    <hyperlink ref="A65" r:id="rId66"/>
+    <hyperlink ref="A66" r:id="rId67"/>
+    <hyperlink ref="A67" r:id="rId68"/>
+    <hyperlink ref="A68" r:id="rId69"/>
+    <hyperlink ref="A69" r:id="rId70"/>
+    <hyperlink ref="A70" r:id="rId71"/>
+    <hyperlink ref="A71" r:id="rId72"/>
+    <hyperlink ref="A72" r:id="rId73"/>
+    <hyperlink ref="A73" r:id="rId74"/>
+    <hyperlink ref="A74" r:id="rId75"/>
+    <hyperlink ref="A75" r:id="rId76"/>
+    <hyperlink ref="A76" r:id="rId77"/>
+    <hyperlink ref="A77" r:id="rId78"/>
+    <hyperlink ref="A78" r:id="rId79"/>
+    <hyperlink ref="A79" r:id="rId80"/>
+    <hyperlink ref="A80" r:id="rId81"/>
+    <hyperlink ref="A81" r:id="rId82"/>
+    <hyperlink ref="A82" r:id="rId83"/>
+    <hyperlink ref="A83" r:id="rId84"/>
+    <hyperlink ref="A85" r:id="rId85"/>
+    <hyperlink ref="A86" r:id="rId86"/>
+    <hyperlink ref="A87" r:id="rId87"/>
+    <hyperlink ref="A88" r:id="rId88"/>
+    <hyperlink ref="A89" r:id="rId89"/>
+    <hyperlink ref="A90" r:id="rId90"/>
+    <hyperlink ref="A91" r:id="rId91"/>
+    <hyperlink ref="A92" r:id="rId92"/>
+    <hyperlink ref="A106" r:id="rId93"/>
+    <hyperlink ref="A135" r:id="rId94"/>
+    <hyperlink ref="A93" r:id="rId95"/>
+    <hyperlink ref="A94" r:id="rId96"/>
+    <hyperlink ref="A95" r:id="rId97"/>
+    <hyperlink ref="A96" r:id="rId98"/>
+    <hyperlink ref="A97" r:id="rId99"/>
+    <hyperlink ref="A98" r:id="rId100"/>
+    <hyperlink ref="A99" r:id="rId101"/>
+    <hyperlink ref="A100" r:id="rId102"/>
+    <hyperlink ref="A101" r:id="rId103"/>
+    <hyperlink ref="A102" r:id="rId104"/>
+    <hyperlink ref="A103" r:id="rId105"/>
+    <hyperlink ref="A104" r:id="rId106"/>
+    <hyperlink ref="A105" r:id="rId107"/>
+    <hyperlink ref="A107" r:id="rId108"/>
+    <hyperlink ref="A108" r:id="rId109"/>
+    <hyperlink ref="A109" r:id="rId110"/>
+    <hyperlink ref="A110" r:id="rId111"/>
+    <hyperlink ref="A111" r:id="rId112"/>
+    <hyperlink ref="A112" r:id="rId113"/>
+    <hyperlink ref="A113" r:id="rId114"/>
+    <hyperlink ref="A114" r:id="rId115"/>
+    <hyperlink ref="A115" r:id="rId116"/>
+    <hyperlink ref="A116" r:id="rId117"/>
+    <hyperlink ref="A117" r:id="rId118"/>
+    <hyperlink ref="A118" r:id="rId119"/>
+    <hyperlink ref="A119" r:id="rId120"/>
+    <hyperlink ref="A120" r:id="rId121"/>
+    <hyperlink ref="A121" r:id="rId122"/>
+    <hyperlink ref="A122" r:id="rId123"/>
+    <hyperlink ref="A123" r:id="rId124"/>
+    <hyperlink ref="A124" r:id="rId125"/>
+    <hyperlink ref="A125" r:id="rId126"/>
+    <hyperlink ref="A126" r:id="rId127"/>
+    <hyperlink ref="A127" r:id="rId128"/>
+    <hyperlink ref="A128" r:id="rId129"/>
+    <hyperlink ref="A129" r:id="rId130"/>
+    <hyperlink ref="A130" r:id="rId131"/>
+    <hyperlink ref="A132" r:id="rId132"/>
+    <hyperlink ref="A133" r:id="rId133"/>
+    <hyperlink ref="A131" r:id="rId134"/>
+    <hyperlink ref="A134" r:id="rId135"/>
+    <hyperlink ref="A136" r:id="rId136"/>
+    <hyperlink ref="A137" r:id="rId137"/>
+    <hyperlink ref="A138" r:id="rId138"/>
+    <hyperlink ref="A139" r:id="rId139"/>
+    <hyperlink ref="A140" r:id="rId140"/>
+    <hyperlink ref="A141" r:id="rId141"/>
+    <hyperlink ref="A142" r:id="rId142"/>
+    <hyperlink ref="A143" r:id="rId143"/>
+    <hyperlink ref="A144" r:id="rId144"/>
+    <hyperlink ref="A145" r:id="rId145"/>
+    <hyperlink ref="A146" r:id="rId146"/>
+    <hyperlink ref="A147" r:id="rId147"/>
+    <hyperlink ref="A148" r:id="rId148"/>
+    <hyperlink ref="A172" r:id="rId149"/>
+    <hyperlink ref="A181" r:id="rId150"/>
+    <hyperlink ref="A180" r:id="rId151"/>
+    <hyperlink ref="A189" r:id="rId152"/>
+    <hyperlink ref="A149" r:id="rId153"/>
+    <hyperlink ref="A150" r:id="rId154"/>
+    <hyperlink ref="A151" r:id="rId155"/>
+    <hyperlink ref="A152" r:id="rId156"/>
+    <hyperlink ref="A153" r:id="rId157"/>
+    <hyperlink ref="A154" r:id="rId158"/>
+    <hyperlink ref="A155" r:id="rId159"/>
+    <hyperlink ref="A156" r:id="rId160"/>
+    <hyperlink ref="A157" r:id="rId161"/>
+    <hyperlink ref="A158" r:id="rId162"/>
+    <hyperlink ref="A159" r:id="rId163"/>
+    <hyperlink ref="A160" r:id="rId164"/>
+    <hyperlink ref="A161" r:id="rId165"/>
+    <hyperlink ref="A162" r:id="rId166"/>
+    <hyperlink ref="A163" r:id="rId167"/>
+    <hyperlink ref="A164" r:id="rId168"/>
+    <hyperlink ref="A165" r:id="rId169"/>
+    <hyperlink ref="A166" r:id="rId170"/>
+    <hyperlink ref="A167" r:id="rId171"/>
+    <hyperlink ref="A168" r:id="rId172"/>
+    <hyperlink ref="A169" r:id="rId173"/>
+    <hyperlink ref="A170" r:id="rId174"/>
+    <hyperlink ref="A171" r:id="rId175"/>
+    <hyperlink ref="A173" r:id="rId176"/>
+    <hyperlink ref="A174" r:id="rId177"/>
+    <hyperlink ref="A175" r:id="rId178"/>
+    <hyperlink ref="A176" r:id="rId179"/>
+    <hyperlink ref="A177" r:id="rId180"/>
+    <hyperlink ref="A178" r:id="rId181"/>
+    <hyperlink ref="A179" r:id="rId182"/>
+    <hyperlink ref="A182" r:id="rId183"/>
+    <hyperlink ref="A183" r:id="rId184"/>
+    <hyperlink ref="A184" r:id="rId185"/>
+    <hyperlink ref="A185" r:id="rId186"/>
+    <hyperlink ref="A186" r:id="rId187"/>
+    <hyperlink ref="A187" r:id="rId188"/>
+    <hyperlink ref="A188" r:id="rId189"/>
+    <hyperlink ref="A190" r:id="rId190"/>
+    <hyperlink ref="A214" r:id="rId191"/>
+    <hyperlink ref="A197" r:id="rId192"/>
+    <hyperlink ref="A198" r:id="rId193"/>
+    <hyperlink ref="A199" r:id="rId194"/>
+    <hyperlink ref="A200" r:id="rId195"/>
+    <hyperlink ref="A201" r:id="rId196"/>
+    <hyperlink ref="A202" r:id="rId197"/>
+    <hyperlink ref="A203" r:id="rId198"/>
+    <hyperlink ref="A204" r:id="rId199"/>
+    <hyperlink ref="A205" r:id="rId200"/>
+    <hyperlink ref="A206" r:id="rId201"/>
+    <hyperlink ref="A207" r:id="rId202"/>
+    <hyperlink ref="A208" r:id="rId203"/>
+    <hyperlink ref="A209" r:id="rId204"/>
+    <hyperlink ref="A210" r:id="rId205"/>
+    <hyperlink ref="A211" r:id="rId206"/>
+    <hyperlink ref="A212" r:id="rId207"/>
+    <hyperlink ref="A213" r:id="rId208"/>
+    <hyperlink ref="A191" r:id="rId209"/>
+    <hyperlink ref="A192" r:id="rId210"/>
+    <hyperlink ref="A193" r:id="rId211"/>
+    <hyperlink ref="A194" r:id="rId212"/>
+    <hyperlink ref="A195" r:id="rId213"/>
+    <hyperlink ref="A196" r:id="rId214"/>
+    <hyperlink ref="A216" r:id="rId215"/>
+    <hyperlink ref="A221" r:id="rId216"/>
+    <hyperlink ref="A215" r:id="rId217"/>
+    <hyperlink ref="A217" r:id="rId218"/>
+    <hyperlink ref="A218" r:id="rId219"/>
+    <hyperlink ref="A219" r:id="rId220"/>
+    <hyperlink ref="A220" r:id="rId221"/>
+    <hyperlink ref="A222" r:id="rId222"/>
+    <hyperlink ref="A223" r:id="rId223"/>
+    <hyperlink ref="A224" r:id="rId224"/>
+    <hyperlink ref="A225" r:id="rId225"/>
+    <hyperlink ref="A226" r:id="rId226"/>
+    <hyperlink ref="A227" r:id="rId227"/>
+    <hyperlink ref="A228" r:id="rId228"/>
+    <hyperlink ref="A229" r:id="rId229"/>
+    <hyperlink ref="A230" r:id="rId230"/>
+    <hyperlink ref="A231" r:id="rId231"/>
+    <hyperlink ref="A232" r:id="rId232"/>
+    <hyperlink ref="A233" r:id="rId233"/>
+    <hyperlink ref="A234" r:id="rId234"/>
+    <hyperlink ref="A269" r:id="rId235"/>
+    <hyperlink ref="A235" r:id="rId236"/>
+    <hyperlink ref="A236" r:id="rId237"/>
+    <hyperlink ref="A237" r:id="rId238"/>
+    <hyperlink ref="A238" r:id="rId239"/>
+    <hyperlink ref="A239" r:id="rId240"/>
+    <hyperlink ref="A240" r:id="rId241"/>
+    <hyperlink ref="A241" r:id="rId242"/>
+    <hyperlink ref="A242" r:id="rId243"/>
+    <hyperlink ref="A243" r:id="rId244"/>
+    <hyperlink ref="A244" r:id="rId245"/>
+    <hyperlink ref="A245" r:id="rId246"/>
+    <hyperlink ref="A246" r:id="rId247"/>
+    <hyperlink ref="A247" r:id="rId248"/>
+    <hyperlink ref="A248" r:id="rId249"/>
+    <hyperlink ref="A249" r:id="rId250"/>
+    <hyperlink ref="A250" r:id="rId251"/>
+    <hyperlink ref="A251" r:id="rId252"/>
+    <hyperlink ref="A252" r:id="rId253"/>
+    <hyperlink ref="A253" r:id="rId254"/>
+    <hyperlink ref="A254" r:id="rId255"/>
+    <hyperlink ref="A255" r:id="rId256"/>
+    <hyperlink ref="A256" r:id="rId257"/>
+    <hyperlink ref="A257" r:id="rId258"/>
+    <hyperlink ref="A258" r:id="rId259"/>
+    <hyperlink ref="A259" r:id="rId260"/>
+    <hyperlink ref="A260" r:id="rId261"/>
+    <hyperlink ref="A261" r:id="rId262"/>
+    <hyperlink ref="A262" r:id="rId263"/>
+    <hyperlink ref="A263" r:id="rId264"/>
+    <hyperlink ref="A264" r:id="rId265"/>
+    <hyperlink ref="A265" r:id="rId266"/>
+    <hyperlink ref="A266" r:id="rId267"/>
+    <hyperlink ref="A267" r:id="rId268"/>
+    <hyperlink ref="A268" r:id="rId269"/>
+    <hyperlink ref="A270" r:id="rId270"/>
+    <hyperlink ref="A271" r:id="rId271"/>
+    <hyperlink ref="A272" r:id="rId272"/>
+    <hyperlink ref="A273" r:id="rId273"/>
+    <hyperlink ref="A274" r:id="rId274"/>
+    <hyperlink ref="A275" r:id="rId275"/>
+    <hyperlink ref="A276" r:id="rId276"/>
+    <hyperlink ref="A277" r:id="rId277"/>
+    <hyperlink ref="A278" r:id="rId278"/>
+    <hyperlink ref="A279" r:id="rId279"/>
+    <hyperlink ref="A280" r:id="rId280"/>
+    <hyperlink ref="A281" r:id="rId281"/>
+    <hyperlink ref="A282" r:id="rId282"/>
+    <hyperlink ref="A283" r:id="rId283"/>
+    <hyperlink ref="A284" r:id="rId284"/>
+    <hyperlink ref="A285" r:id="rId285"/>
+    <hyperlink ref="A286" r:id="rId286"/>
+    <hyperlink ref="A287" r:id="rId287"/>
+    <hyperlink ref="A288" r:id="rId288"/>
+    <hyperlink ref="A289" r:id="rId289"/>
+    <hyperlink ref="A290" r:id="rId290"/>
+    <hyperlink ref="A291" r:id="rId291"/>
+    <hyperlink ref="A292" r:id="rId292"/>
+    <hyperlink ref="A293" r:id="rId293"/>
+    <hyperlink ref="A294" display="https://www.aliqtisadi.ps/public/files/image/2016/untitled%20folder%201/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/untitled%20folder/unt"/>
+    <hyperlink ref="A299" r:id="rId294"/>
+    <hyperlink ref="A295" r:id="rId295"/>
+    <hyperlink ref="A296" r:id="rId296"/>
+    <hyperlink ref="A297" r:id="rId297"/>
+    <hyperlink ref="A298" r:id="rId298"/>
+    <hyperlink ref="A300" r:id="rId299"/>
+    <hyperlink ref="A301" r:id="rId300"/>
+    <hyperlink ref="A302" r:id="rId301"/>
+    <hyperlink ref="A303" r:id="rId302"/>
+    <hyperlink ref="A304" r:id="rId303"/>
+    <hyperlink ref="A305" r:id="rId304"/>
+    <hyperlink ref="A306" r:id="rId305"/>
+    <hyperlink ref="A307" r:id="rId306"/>
+    <hyperlink ref="A308" r:id="rId307"/>
+    <hyperlink ref="A309" r:id="rId308"/>
+    <hyperlink ref="A310" r:id="rId309"/>
+    <hyperlink ref="A313" r:id="rId310"/>
+    <hyperlink ref="A346" r:id="rId311"/>
+    <hyperlink ref="A311" r:id="rId312"/>
+    <hyperlink ref="A312" r:id="rId313"/>
+    <hyperlink ref="A314" r:id="rId314"/>
+    <hyperlink ref="A315" r:id="rId315"/>
+    <hyperlink ref="A316" r:id="rId316"/>
+    <hyperlink ref="A317" r:id="rId317"/>
+    <hyperlink ref="A318" r:id="rId318"/>
+    <hyperlink ref="A319" r:id="rId319"/>
+    <hyperlink ref="A320" r:id="rId320"/>
+    <hyperlink ref="A321" r:id="rId321"/>
+    <hyperlink ref="A322" r:id="rId322"/>
+    <hyperlink ref="A323" r:id="rId323"/>
+    <hyperlink ref="A324" r:id="rId324"/>
+    <hyperlink ref="A325" r:id="rId325"/>
+    <hyperlink ref="A326" r:id="rId326"/>
+    <hyperlink ref="A327" r:id="rId327"/>
+    <hyperlink ref="A328" r:id="rId328"/>
+    <hyperlink ref="A347" r:id="rId329"/>
+    <hyperlink ref="A348" r:id="rId330"/>
+    <hyperlink ref="A329" r:id="rId331"/>
+    <hyperlink ref="A330" r:id="rId332"/>
+    <hyperlink ref="A331" r:id="rId333"/>
+    <hyperlink ref="A332" r:id="rId334"/>
+    <hyperlink ref="A333" r:id="rId335"/>
+    <hyperlink ref="A334" r:id="rId336"/>
+    <hyperlink ref="A335" r:id="rId337"/>
+    <hyperlink ref="A336" r:id="rId338"/>
+    <hyperlink ref="A339" r:id="rId339"/>
+    <hyperlink ref="A340" r:id="rId340"/>
+    <hyperlink ref="A341" r:id="rId341"/>
+    <hyperlink ref="A343" r:id="rId342"/>
+    <hyperlink ref="A337" r:id="rId343"/>
+    <hyperlink ref="A338" r:id="rId344"/>
+    <hyperlink ref="A342" r:id="rId345"/>
+    <hyperlink ref="A344" r:id="rId346"/>
+    <hyperlink ref="A345" r:id="rId347"/>
+    <hyperlink ref="A349" r:id="rId348"/>
+    <hyperlink ref="A350" r:id="rId349"/>
+    <hyperlink ref="A353" r:id="rId350"/>
+    <hyperlink ref="A381" r:id="rId351"/>
+    <hyperlink ref="A351" r:id="rId352"/>
+    <hyperlink ref="A352" r:id="rId353"/>
+    <hyperlink ref="A354" r:id="rId354"/>
+    <hyperlink ref="A355" r:id="rId355"/>
+    <hyperlink ref="A356" r:id="rId356"/>
+    <hyperlink ref="A357" r:id="rId357"/>
+    <hyperlink ref="A358" r:id="rId358"/>
+    <hyperlink ref="A359" r:id="rId359"/>
+    <hyperlink ref="A360" r:id="rId360"/>
+    <hyperlink ref="A361" r:id="rId361"/>
+    <hyperlink ref="A362" r:id="rId362"/>
+    <hyperlink ref="A363" r:id="rId363"/>
+    <hyperlink ref="A364" r:id="rId364"/>
+    <hyperlink ref="A365" r:id="rId365"/>
+    <hyperlink ref="A366" r:id="rId366"/>
+    <hyperlink ref="A367" r:id="rId367"/>
+    <hyperlink ref="A368" r:id="rId368"/>
+    <hyperlink ref="A369" r:id="rId369"/>
+    <hyperlink ref="A370" r:id="rId370"/>
+    <hyperlink ref="A371" r:id="rId371"/>
+    <hyperlink ref="A372" r:id="rId372"/>
+    <hyperlink ref="A390" r:id="rId373"/>
+    <hyperlink ref="A389" r:id="rId374"/>
+    <hyperlink ref="A388" r:id="rId375"/>
+    <hyperlink ref="A373" r:id="rId376"/>
+    <hyperlink ref="A374" r:id="rId377"/>
+    <hyperlink ref="A375" r:id="rId378"/>
+    <hyperlink ref="A376" r:id="rId379"/>
+    <hyperlink ref="A377" r:id="rId380"/>
+    <hyperlink ref="A378" r:id="rId381"/>
+    <hyperlink ref="A379" r:id="rId382"/>
+    <hyperlink ref="A380" r:id="rId383"/>
+    <hyperlink ref="A382" r:id="rId384"/>
+    <hyperlink ref="A383" r:id="rId385"/>
+    <hyperlink ref="A384" r:id="rId386"/>
+    <hyperlink ref="A385" r:id="rId387"/>
+    <hyperlink ref="A386" r:id="rId388"/>
+    <hyperlink ref="A387" r:id="rId389"/>
+    <hyperlink ref="A402" r:id="rId390"/>
+    <hyperlink ref="A416" r:id="rId391"/>
+    <hyperlink ref="A421" r:id="rId392"/>
+    <hyperlink ref="A391" r:id="rId393"/>
+    <hyperlink ref="A392" r:id="rId394"/>
+    <hyperlink ref="A393" r:id="rId395"/>
+    <hyperlink ref="A394" r:id="rId396"/>
+    <hyperlink ref="A396" r:id="rId397"/>
+    <hyperlink ref="A395" r:id="rId398"/>
+    <hyperlink ref="A397" r:id="rId399"/>
+    <hyperlink ref="A398" r:id="rId400"/>
+    <hyperlink ref="A399" r:id="rId401"/>
+    <hyperlink ref="A400" r:id="rId402"/>
+    <hyperlink ref="A403" r:id="rId403"/>
+    <hyperlink ref="A401" r:id="rId404"/>
+    <hyperlink ref="A414" r:id="rId405"/>
+    <hyperlink ref="A415" r:id="rId406"/>
+    <hyperlink ref="A417" r:id="rId407"/>
+    <hyperlink ref="A418" r:id="rId408"/>
+    <hyperlink ref="A419" r:id="rId409"/>
+    <hyperlink ref="A420" r:id="rId410"/>
+    <hyperlink ref="A422" r:id="rId411"/>
+    <hyperlink ref="A423" r:id="rId412"/>
+    <hyperlink ref="A424" r:id="rId413"/>
+    <hyperlink ref="A425" r:id="rId414"/>
+    <hyperlink ref="A404" r:id="rId415"/>
+    <hyperlink ref="A406" r:id="rId416"/>
+    <hyperlink ref="A405" r:id="rId417"/>
+    <hyperlink ref="A407" r:id="rId418"/>
+    <hyperlink ref="A408" r:id="rId419"/>
+    <hyperlink ref="A409" r:id="rId420"/>
+    <hyperlink ref="A411" r:id="rId421"/>
+    <hyperlink ref="A410" r:id="rId422"/>
+    <hyperlink ref="A412" r:id="rId423"/>
+    <hyperlink ref="A413" r:id="rId424"/>
+    <hyperlink ref="A448" r:id="rId425"/>
+    <hyperlink ref="A444" r:id="rId426"/>
+    <hyperlink ref="A426" r:id="rId427"/>
+    <hyperlink ref="A427" r:id="rId428"/>
+    <hyperlink ref="A429" r:id="rId429"/>
+    <hyperlink ref="A428" r:id="rId430"/>
+    <hyperlink ref="A430" r:id="rId431"/>
+    <hyperlink ref="A431" r:id="rId432"/>
+    <hyperlink ref="A465" r:id="rId433"/>
+    <hyperlink ref="A464" r:id="rId434"/>
+    <hyperlink ref="A463" r:id="rId435"/>
+    <hyperlink ref="A462" r:id="rId436"/>
+    <hyperlink ref="A461" r:id="rId437"/>
+    <hyperlink ref="A460" r:id="rId438"/>
+    <hyperlink ref="A459" r:id="rId439"/>
+    <hyperlink ref="A458" r:id="rId440"/>
+    <hyperlink ref="A457" r:id="rId441"/>
+    <hyperlink ref="A456" r:id="rId442"/>
+    <hyperlink ref="A455" r:id="rId443"/>
+    <hyperlink ref="A454" r:id="rId444"/>
+    <hyperlink ref="A432" r:id="rId445"/>
+    <hyperlink ref="A433" r:id="rId446"/>
+    <hyperlink ref="A434" r:id="rId447"/>
+    <hyperlink ref="A435" r:id="rId448"/>
+    <hyperlink ref="A437" r:id="rId449"/>
+    <hyperlink ref="A436" r:id="rId450"/>
+    <hyperlink ref="A438" r:id="rId451"/>
+    <hyperlink ref="A439" r:id="rId452"/>
+    <hyperlink ref="A440" r:id="rId453"/>
+    <hyperlink ref="A441" r:id="rId454"/>
+    <hyperlink ref="A442" r:id="rId455"/>
+    <hyperlink ref="A443" r:id="rId456"/>
+    <hyperlink ref="A445" r:id="rId457"/>
+    <hyperlink ref="A446" r:id="rId458"/>
+    <hyperlink ref="A447" r:id="rId459"/>
+    <hyperlink ref="A449" r:id="rId460"/>
+    <hyperlink ref="A450" r:id="rId461"/>
+    <hyperlink ref="A451" r:id="rId462"/>
+    <hyperlink ref="A452" r:id="rId463"/>
+    <hyperlink ref="A453" r:id="rId464"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
